--- a/ExcelConfig/levels.xlsx
+++ b/ExcelConfig/levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="600" windowWidth="16940" windowHeight="10000"/>
+    <workbookView xWindow="6000" yWindow="600" windowWidth="16940" windowHeight="10000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,24 @@
     <rPh sb="4" eb="5">
       <t>biao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelResouceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名称</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -539,27 +557,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="19.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="5" width="19.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -570,16 +588,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -590,16 +611,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -610,30 +634,36 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/levels.xlsx
+++ b/ExcelConfig/levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="600" windowWidth="16940" windowHeight="10000" activeTab="1"/>
+    <workbookView xWindow="12620" yWindow="580" windowWidth="16940" windowHeight="10000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,32 @@
   </si>
   <si>
     <t>Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointAddSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>单位时间增加能量值</t>
+    <rPh sb="0" eb="1">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>neng liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,27 +583,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="19.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="6" width="19.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -591,16 +617,19 @@
         <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -614,16 +643,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -637,16 +669,19 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -657,13 +692,19 @@
         <v>20</v>
       </c>
       <c r="E4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="2">
         <v>300</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/levels.xlsx
+++ b/ExcelConfig/levels.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="580" windowWidth="16940" windowHeight="10000" activeTab="1"/>
+    <workbookView xWindow="4180" yWindow="480" windowWidth="20560" windowHeight="11900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,108 +65,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关卡1</t>
+    <t>TowerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <rPh sb="0" eb="1">
+      <t>jian ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制时间秒</t>
+    <rPh sb="0" eb="1">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡数据表</t>
     <rPh sb="0" eb="1">
       <t>guan ka</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelAI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出兵逻辑</t>
+    <rPh sb="2" eb="3">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelResouceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名称</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>PointLeftAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointRightAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左边队伍能量增加（每秒）</t>
+    <rPh sb="0" eb="1">
+      <t>zuo bian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui wu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>neng liang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间增加能量值（每秒）</t>
+    <rPh sb="0" eb="1">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>neng liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AILogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20|3,10|4,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出兵逻辑概率和兵种</t>
     <rPh sb="0" eb="1">
       <t>chu bing</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>luo ji</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TowerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭塔</t>
-    <rPh sb="0" eb="1">
-      <t>jian ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制时间秒</t>
-    <rPh sb="0" eb="1">
-      <t>xian zhi</t>
+    <rPh sb="4" eb="5">
+      <t>gai lü</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bing zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万物开始</t>
+    <rPh sb="0" eb="1">
+      <t>wan wu</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>miao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡数据表</t>
-    <rPh sb="0" eb="1">
-      <t>guan ka</t>
+      <t>kai shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大能量</t>
+    <rPh sb="0" eb="1">
+      <t>zui da</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelResouceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡名称</t>
-    <rPh sb="0" eb="1">
-      <t>guan ka</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming cheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PointAddSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>单位时间增加能量值</t>
-    <rPh sb="0" eb="1">
-      <t>dan wei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zeng jia</t>
-    </rPh>
-    <rPh sb="6" eb="7">
       <t>neng liang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -583,27 +639,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="19.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="7" width="19.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,22 +671,28 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -643,19 +706,25 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -666,45 +735,60 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
-        <v>0.3</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="2">
         <v>300</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:S2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:U2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/levels.xlsx
+++ b/ExcelConfig/levels.xlsx
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,20|3,10|4,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出兵逻辑概率和兵种</t>
     <rPh sb="0" eb="1">
       <t>chu bing</t>
@@ -224,6 +220,10 @@
     <rPh sb="2" eb="3">
       <t>neng liang</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,70|1,70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,12 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,7 +646,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -738,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -750,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>11</v>
@@ -761,25 +762,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>300</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>1200</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="J4" s="2">
         <v>5</v>

--- a/ExcelConfig/levels.xlsx
+++ b/ExcelConfig/levels.xlsx
@@ -15,7 +15,7 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="LevelData" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,8 +24,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>解锁条件:
+0 无需解锁
+1 需要完成前置关卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t>难度系数 0-10</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,103 +167,377 @@
     <t>Float</t>
   </si>
   <si>
+    <t>PointRightAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位时间增加能量值（每秒）</t>
+    <rPh sb="0" eb="1">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>neng liang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AILogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出兵逻辑概率和兵种</t>
+    <rPh sb="0" eb="1">
+      <t>chu bing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>luo ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai lü</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bing zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointBegin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始能量</t>
+    <rPh sb="0" eb="1">
+      <t>chu shi hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>neng liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物初始化能量</t>
+    <rPh sb="0" eb="1">
+      <t>guai wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu shi hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>neng liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointGetRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量获取比例</t>
+    <rPh sb="0" eb="1">
+      <t>neng liang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bi li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level1</t>
+  </si>
+  <si>
+    <t>UnlockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件</t>
+    <rPh sb="0" eb="1">
+      <t>jie suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁参数</t>
+    <rPh sb="0" eb="1">
+      <t>jie suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>can shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PointLeftAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PointRightAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边队伍能量增加（每秒）</t>
-    <rPh sb="0" eb="1">
-      <t>zuo bian</t>
+    <t>玩家单位时间获取能量</t>
+    <rPh sb="0" eb="1">
+      <t>wan jia</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>dui wu</t>
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>neng liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI出兵间隔时间</t>
+    <rPh sb="2" eb="3">
+      <t>chu bing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡1</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡2</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡3</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡4</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡5</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡6</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡7</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡8</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡9</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡10</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡11</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡12</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡13</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡14</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡15</t>
+    <rPh sb="0" eb="1">
+      <t>guan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大</t>
+    <rPh sb="0" eb="1">
+      <t>zui da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterGetRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物获取能量比</t>
+    <rPh sb="0" eb="1">
+      <t>guai wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huo qu</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>neng liang</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>zeng jia</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mei</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>miao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位时间增加能量值（每秒）</t>
-    <rPh sb="0" eb="1">
-      <t>dan wei</t>
+      <t>bi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度系数</t>
+    <rPh sb="0" eb="1">
+      <t>nan du</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zeng jia</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>neng liang</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AILogic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出兵逻辑概率和兵种</t>
-    <rPh sb="0" eb="1">
-      <t>chu bing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>luo ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gai lü</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>he</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bing zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万物开始</t>
-    <rPh sb="0" eb="1">
-      <t>wan wu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kai shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大能量</t>
-    <rPh sb="0" eb="1">
-      <t>zui da</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>neng liang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,70|1,70</t>
+      <t>xi shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,90|4,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,40|4,30|3,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,30|1,60|2,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10|2,25|1,60|3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,40|1,40|2,10|3,10</t>
+  </si>
+  <si>
+    <t>4,40|1,40|2,10|3,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,80|4,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,70|4,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,80|2,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +584,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -639,29 +960,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="19.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="6" width="19.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="2" customWidth="1"/>
+    <col min="8" max="14" width="19.83203125" style="2" customWidth="1"/>
+    <col min="15" max="16" width="17" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -672,28 +995,52 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -704,28 +1051,52 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -736,64 +1107,915 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="R3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <f>1-(I4/12)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="2">
+        <f>MIN(1,I4/12)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M4" s="2">
+        <f>MAX(0.1,(2-I4/15)/5)</f>
+        <v>0.36</v>
+      </c>
+      <c r="N4" s="2">
+        <f>(2+(I4/10))/5</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="O4" s="2">
+        <v>360</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:K18" si="0">1-(I5/12)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L18" si="1">MIN(1,I5/12)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M18" si="2">MAX(0.1,(2-I5/15)/5)</f>
+        <v>0.36</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5:N18" si="3">(2+(I5/10))/5</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="O5" s="2">
+        <v>360</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="O6" s="2">
+        <v>360</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="O7" s="2">
+        <v>360</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>360</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>360</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>360</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>360</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>360</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+      <c r="O13" s="2">
+        <v>360</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+      <c r="O14" s="2">
+        <v>360</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2">
+        <v>50</v>
+      </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>10</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+      <c r="O15" s="2">
+        <v>360</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50</v>
+      </c>
+      <c r="H16" s="2">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52</v>
+      </c>
+      <c r="O16" s="2">
+        <v>360</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="2">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7</v>
+      </c>
+      <c r="J17" s="2">
+        <v>10</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="O17" s="2">
+        <v>360</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="G18" s="2">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="O18" s="2">
+        <v>360</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R18" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:AC2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>